--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\Kentucky\eps-kentucky\InputData\ccs\BCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/ccs/BCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980F67B-0D0E-4942-ABFD-8FB5DFE0CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4980F67B-0D0E-4942-ABFD-8FB5DFE0CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F2B4E5A-6F1D-45F3-9DB0-A2C6762D16D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="15870" windowHeight="9890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Electricity Calculations" sheetId="5" r:id="rId2"/>
-    <sheet name="BCS" sheetId="4" r:id="rId3"/>
+    <sheet name="BCS" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">About!$A$11</definedName>
@@ -46,14 +45,20 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0.15</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,51 +66,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>BCS BAU CCS Subsidy</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>None needed</t>
+  </si>
+  <si>
     <t>Notes:</t>
   </si>
   <si>
+    <t>This variable captures any BAU subsidies for CCS, specified in dollars per ton captured.</t>
+  </si>
+  <si>
+    <t>For electricity, adjust the credit value based on its duration relative to the financing repayment period</t>
+  </si>
+  <si>
+    <t>2022 to 2012 USD</t>
+  </si>
+  <si>
+    <t>EU version notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BAU scenario reflects the political reality before the Green Deal. For CCS there was only a very </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limited amount of CCS projects, the funding propoerly started with the innovation fund which was </t>
+  </si>
+  <si>
+    <t>implemented later and is thus not reflected in the BAU scenario.</t>
+  </si>
+  <si>
+    <t>$ / metric ton</t>
+  </si>
+  <si>
     <t>electricity sector</t>
   </si>
   <si>
     <t>industry sector</t>
-  </si>
-  <si>
-    <t>None needed</t>
-  </si>
-  <si>
-    <t>2022 to 2012 USD</t>
-  </si>
-  <si>
-    <t>This variable captures any BAU subsidies for CCS, specified in dollars per ton captured.</t>
-  </si>
-  <si>
-    <t>BCS BAU CCS Subsidy</t>
-  </si>
-  <si>
-    <t>$ / metric ton</t>
-  </si>
-  <si>
-    <t>45Q Tax Credit Amount</t>
-  </si>
-  <si>
-    <t>Credit Amount</t>
-  </si>
-  <si>
-    <t>Repayment Period for Financing</t>
-  </si>
-  <si>
-    <t>45Q Credit Duration</t>
-  </si>
-  <si>
-    <t>Credit Value</t>
-  </si>
-  <si>
-    <t>For electricity, adjust the credit value based on its duration relative to the financing repayment period</t>
   </si>
 </sst>
 </file>
@@ -161,7 +163,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -171,8 +173,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -479,61 +480,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="55.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>0.78500000000000003</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>85</v>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -543,58 +557,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB35C55-7F27-44A6-A8A7-496D78F28576}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7">
-        <f>About!B11</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7">
-        <f>B1*B3/B2</f>
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -602,18 +564,18 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2">
         <v>2021</v>
@@ -706,114 +668,104 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="E2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="F2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="G2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="H2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="I2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="J2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="K2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="L2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="M2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="14.45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0</v>
+      </c>
+      <c r="X2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -822,44 +774,34 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -919,4 +861,285 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CF417A-8869-47EB-860F-E016BBDD5BFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A50DD8-3A61-4211-A753-310DBFA13D7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43051D0A-9F08-4125-9214-D5FE8E8A30EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/ccs/BCS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\Kentucky\eps-kentucky\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4980F67B-0D0E-4942-ABFD-8FB5DFE0CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F2B4E5A-6F1D-45F3-9DB0-A2C6762D16D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980F67B-0D0E-4942-ABFD-8FB5DFE0CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="15870" windowHeight="9890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BCS" sheetId="4" r:id="rId2"/>
+    <sheet name="Electricity Calculations" sheetId="5" r:id="rId2"/>
+    <sheet name="BCS" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">About!$A$11</definedName>
@@ -45,20 +46,14 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0.15</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -66,48 +61,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>electricity sector</t>
+  </si>
+  <si>
+    <t>industry sector</t>
+  </si>
+  <si>
+    <t>None needed</t>
+  </si>
+  <si>
+    <t>2022 to 2012 USD</t>
+  </si>
+  <si>
+    <t>This variable captures any BAU subsidies for CCS, specified in dollars per ton captured.</t>
+  </si>
   <si>
     <t>BCS BAU CCS Subsidy</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>None needed</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>This variable captures any BAU subsidies for CCS, specified in dollars per ton captured.</t>
+    <t>$ / metric ton</t>
+  </si>
+  <si>
+    <t>45Q Tax Credit Amount</t>
+  </si>
+  <si>
+    <t>Credit Amount</t>
+  </si>
+  <si>
+    <t>Repayment Period for Financing</t>
+  </si>
+  <si>
+    <t>45Q Credit Duration</t>
+  </si>
+  <si>
+    <t>Credit Value</t>
   </si>
   <si>
     <t>For electricity, adjust the credit value based on its duration relative to the financing repayment period</t>
-  </si>
-  <si>
-    <t>2022 to 2012 USD</t>
-  </si>
-  <si>
-    <t>EU version notes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The BAU scenario reflects the political reality before the Green Deal. For CCS there was only a very </t>
-  </si>
-  <si>
-    <t xml:space="preserve">limited amount of CCS projects, the funding propoerly started with the innovation fund which was </t>
-  </si>
-  <si>
-    <t>implemented later and is thus not reflected in the BAU scenario.</t>
-  </si>
-  <si>
-    <t>$ / metric ton</t>
-  </si>
-  <si>
-    <t>electricity sector</t>
-  </si>
-  <si>
-    <t>industry sector</t>
   </si>
 </sst>
 </file>
@@ -163,7 +161,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -173,7 +171,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -480,74 +479,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.78500000000000003</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
+      <c r="B11" s="6">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -557,6 +543,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB35C55-7F27-44A6-A8A7-496D78F28576}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7">
+        <f>About!B11</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <f>B1*B3/B2</f>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -564,18 +602,18 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2">
         <v>2021</v>
@@ -668,104 +706,114 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7">
-        <v>0</v>
-      </c>
-      <c r="X2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="G2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="I2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="J2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="L2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="M2" s="8">
+        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
+        <v>40.035000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -774,34 +822,44 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <f>About!$B$11*About!$A$9</f>
+        <v>66.725000000000009</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -861,285 +919,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CF417A-8869-47EB-860F-E016BBDD5BFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A50DD8-3A61-4211-A753-310DBFA13D7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43051D0A-9F08-4125-9214-D5FE8E8A30EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
+++ b/InputData/ccs/BCS/BAU CCS Subsidy.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\Kentucky\eps-kentucky\InputData\ccs\BCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\ccs\BCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980F67B-0D0E-4942-ABFD-8FB5DFE0CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB460344-7FC6-47CC-8AE1-3596CB607FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31080" yWindow="2295" windowWidth="26310" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Electricity Calculations" sheetId="5" r:id="rId2"/>
-    <sheet name="BCS" sheetId="4" r:id="rId3"/>
+    <sheet name="BCS-BCS" sheetId="4" r:id="rId2"/>
+    <sheet name="BCS-DoSfCS" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">About!$A$11</definedName>
@@ -61,14 +61,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
     <t>electricity sector</t>
   </si>
   <si>
@@ -78,34 +75,28 @@
     <t>None needed</t>
   </si>
   <si>
-    <t>2022 to 2012 USD</t>
-  </si>
-  <si>
-    <t>This variable captures any BAU subsidies for CCS, specified in dollars per ton captured.</t>
-  </si>
-  <si>
     <t>BCS BAU CCS Subsidy</t>
   </si>
   <si>
     <t>$ / metric ton</t>
   </si>
   <si>
-    <t>45Q Tax Credit Amount</t>
-  </si>
-  <si>
-    <t>Credit Amount</t>
-  </si>
-  <si>
-    <t>Repayment Period for Financing</t>
-  </si>
-  <si>
-    <t>45Q Credit Duration</t>
-  </si>
-  <si>
-    <t>Credit Value</t>
-  </si>
-  <si>
-    <t>For electricity, adjust the credit value based on its duration relative to the financing repayment period</t>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>EU version notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BAU scenario reflects the political reality before the Green Deal. For CCS there was only a very </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limited amount of CCS projects, the funding propoerly started with the innovation fund which was </t>
+  </si>
+  <si>
+    <t>implemented later and is thus not reflected in the BAU scenario.</t>
   </si>
 </sst>
 </file>
@@ -161,7 +152,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -171,8 +162,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -481,60 +470,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="55.90625" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>85</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -543,50 +529,325 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB35C55-7F27-44A6-A8A7-496D78F28576}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N16" sqref="A10:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7">
-        <f>About!B11</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2027</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2029</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2031</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2032</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2033</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2034</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2035</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2036</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2037</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2038</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2039</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2040</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2041</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2042</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2043</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2044</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2045</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2046</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2047</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2048</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2049</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7">
-        <f>B1*B3/B2</f>
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>About!$B$11*About!$A$9</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -595,325 +856,235 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5698252-CD29-4D86-9D7F-2214C5598602}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2">
+        <v>6</v>
+      </c>
+      <c r="B1">
         <v>2021</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>2022</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <v>2023</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>2024</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1">
         <v>2025</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1">
         <v>2026</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1">
         <v>2027</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1">
         <v>2028</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1">
         <v>2029</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1">
         <v>2030</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1">
         <v>2031</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1">
         <v>2032</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1">
         <v>2033</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1">
         <v>2034</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1">
         <v>2035</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1">
         <v>2036</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1">
         <v>2037</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1">
         <v>2038</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1">
         <v>2039</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1">
         <v>2040</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1">
         <v>2041</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1">
         <v>2042</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1">
         <v>2043</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1">
         <v>2044</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1">
         <v>2045</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1">
         <v>2046</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1">
         <v>2047</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1">
         <v>2048</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1">
         <v>2049</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="E2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="F2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="G2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="H2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="I2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="J2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="K2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="L2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
-      </c>
-      <c r="M2" s="8">
-        <f>'Electricity Calculations'!$B$4*About!$A$9</f>
-        <v>40.035000000000004</v>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <f>$B$2</f>
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <f>$B$2</f>
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:AE2" si="0">$B$2</f>
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="E3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="F3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="G3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="H3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="I3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="J3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="K3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="L3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="M3">
-        <f>About!$B$11*About!$A$9</f>
-        <v>66.725000000000009</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
